--- a/Data/CashDropTable.xlsx
+++ b/Data/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,307 +40,268 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>4401900438</t>
-  </si>
-  <si>
-    <t>44031100809</t>
-  </si>
-  <si>
-    <t>4401900390</t>
-  </si>
-  <si>
-    <t>44031199102</t>
-  </si>
-  <si>
-    <t>44019001840</t>
-  </si>
-  <si>
-    <t>44031000137</t>
-  </si>
-  <si>
-    <t>44019001115</t>
-  </si>
-  <si>
-    <t>44019001559</t>
-  </si>
-  <si>
-    <t>4401900131</t>
-  </si>
-  <si>
-    <t>90000004772</t>
-  </si>
-  <si>
-    <t>90000015979</t>
-  </si>
-  <si>
-    <t>90000010362</t>
-  </si>
-  <si>
-    <t>90000021606</t>
-  </si>
-  <si>
-    <t>44037801306</t>
-  </si>
-  <si>
-    <t>44019000375</t>
-  </si>
-  <si>
-    <t>44019001149</t>
-  </si>
-  <si>
-    <t>4401900020</t>
-  </si>
-  <si>
-    <t>44031100351</t>
-  </si>
-  <si>
-    <t>Prottyasha Pharmacy</t>
-  </si>
-  <si>
-    <t>Ali Medical Store</t>
-  </si>
-  <si>
-    <t>Com Tech Drug And Surgical</t>
-  </si>
-  <si>
-    <t>Ureca Pharmacy</t>
-  </si>
-  <si>
-    <t>Mehedi Drug House</t>
-  </si>
-  <si>
-    <t>Nahid Medical Hall</t>
-  </si>
-  <si>
-    <t>Kushol Pharmacy</t>
-  </si>
-  <si>
-    <t>Nipa Drug House</t>
-  </si>
-  <si>
-    <t>Khan Medicine House</t>
-  </si>
-  <si>
-    <t>Biswas Medicine &amp; Surgical</t>
-  </si>
-  <si>
-    <t>Kamal Drug House</t>
-  </si>
-  <si>
-    <t>Younus Medicine Corner</t>
-  </si>
-  <si>
-    <t>Khan Pharmacy</t>
-  </si>
-  <si>
-    <t>Joy Ma Pharmacy</t>
-  </si>
-  <si>
-    <t>Allahar Dan Pharmacy</t>
-  </si>
-  <si>
-    <t>Bondhon Mdical Hall</t>
-  </si>
-  <si>
-    <t>TDCL JESSORE</t>
-  </si>
-  <si>
-    <t>Popular Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gobra Bazar Narail                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thana Road Satkhira                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Jesore                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Satkhira                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jail Road Jessore                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboni More Kaligonj Road Satkhira                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Lohagara                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monirampur Jessore                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Road Monirampur Bazar Jesore                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 No, Punak Market,Jail Road,Jessore                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monirampur Bazar,Jessore                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jail Road,Jessore                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shishu Hospital Gate,Satkhira                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kholishkhali Patkelghata Satkhira                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Jessore                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Lohagara Narail                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57/A Hazrat Borhan Shah Road Karbala Jessore                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS76                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS101                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS105                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INST                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-164315     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-366840     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-367001     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-385823     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-385856     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-385830     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-450510     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-458218     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-459961     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-461729     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468856     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-471591     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-472084     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-472497     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-473638     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-474488     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-474686     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-475065     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-474757     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-477069     </t>
-  </si>
-  <si>
-    <t>18 Aug 2018</t>
-  </si>
-  <si>
-    <t>16 Feb 2020</t>
-  </si>
-  <si>
-    <t>17 Feb 2020</t>
-  </si>
-  <si>
-    <t>29 Mar 2020</t>
-  </si>
-  <si>
-    <t>19 Aug 2020</t>
-  </si>
-  <si>
-    <t>04 Sep 2020</t>
-  </si>
-  <si>
-    <t>07 Sep 2020</t>
-  </si>
-  <si>
-    <t>11 Sep 2020</t>
-  </si>
-  <si>
-    <t>25 Sep 2020</t>
-  </si>
-  <si>
-    <t>30 Sep 2020</t>
-  </si>
-  <si>
-    <t>02 Oct 2020</t>
-  </si>
-  <si>
-    <t>03 Oct 2020</t>
-  </si>
-  <si>
-    <t>05 Oct 2020</t>
-  </si>
-  <si>
-    <t>06 Oct 2020</t>
-  </si>
-  <si>
-    <t>07 Oct 2020</t>
-  </si>
-  <si>
-    <t>11 Oct 2020</t>
+    <t>12010509720</t>
+  </si>
+  <si>
+    <t>12010510414</t>
+  </si>
+  <si>
+    <t>12010500323</t>
+  </si>
+  <si>
+    <t>12010124696</t>
+  </si>
+  <si>
+    <t>12010145225</t>
+  </si>
+  <si>
+    <t>12010110187</t>
+  </si>
+  <si>
+    <t>12010500870</t>
+  </si>
+  <si>
+    <t>12010507668</t>
+  </si>
+  <si>
+    <t>12010503370</t>
+  </si>
+  <si>
+    <t>12010125022</t>
+  </si>
+  <si>
+    <t>12010508835</t>
+  </si>
+  <si>
+    <t>12010132310</t>
+  </si>
+  <si>
+    <t>12010511510</t>
+  </si>
+  <si>
+    <t>90000019420</t>
+  </si>
+  <si>
+    <t>12010506869</t>
+  </si>
+  <si>
+    <t>12010124872</t>
+  </si>
+  <si>
+    <t>12010145660</t>
+  </si>
+  <si>
+    <t>12010510526</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Pharmacy</t>
+  </si>
+  <si>
+    <t>Shiraj Pharmacy  Babu</t>
+  </si>
+  <si>
+    <t>Faisal Medicine Shop</t>
+  </si>
+  <si>
+    <t>Zaki Medical Hall</t>
+  </si>
+  <si>
+    <t>Good Luck Pharma</t>
+  </si>
+  <si>
+    <t>Mayer Doa Pharmacy</t>
+  </si>
+  <si>
+    <t>Ibn Sina Medical College</t>
+  </si>
+  <si>
+    <t>Sumaiya Drug House</t>
+  </si>
+  <si>
+    <t>Azim Pharmacy</t>
+  </si>
+  <si>
+    <t>Taj Pharmacy</t>
+  </si>
+  <si>
+    <t>Macca Pharmacy</t>
+  </si>
+  <si>
+    <t>Sawkat Medicall Hall</t>
+  </si>
+  <si>
+    <t>Medi Pharma  Old Aushad Bichit</t>
+  </si>
+  <si>
+    <t>Medi Pharma</t>
+  </si>
+  <si>
+    <t>Mirpur General Hospital &amp; Diag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 5, Borobag,Mirpur  02                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balur Mat,Mirpur 12,Dhaka                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senpara Near Khan Pharma ,Mirpur 10,Mirpur                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasantak Bazar,Dhaka Cantonment,Dhaka                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashemer More, Ahamed Nagor, Mirpur-1                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 2, Ring Road,Shyamoli,Dhaka                              </t>
+  </si>
+  <si>
+    <t>House No 34, Tinshed Colony,  Infront of Rakib Ph,Mirpur 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 5, Borobag,Girza Road,Mirpur  2,Dhaka                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 B, Kallyanpur Bus Stand,Dhaka                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bikrampur Plaza, Plot # 35,under Islami Bank                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block#C,mirpur6,Pollobi,Dhaka-1216.                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhaka Shishu Hospital Gate,Shyamoli,Dhaka                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhaka Shishu Hospital Gate,Shaymoli,Dhaka                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mizan Tower,Kallanpur,Mirpur-1                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouniabad ,Block C,Mirpur 11,Dhaka                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 B, Borobag,Mirpur   2,Dhaka                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewden Plaza,Mirpur   2                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House No -1,Road-4/5,Pallabi , Mirpur,Dhaka                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-684892     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685003     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-684548     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685625     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685310     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685688     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685800     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685733     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-686017     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685874     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-686426     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-686356     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-686262     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685888     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685870     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685892     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-686174     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-686416     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-686267     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV115-685969     </t>
+  </si>
+  <si>
+    <t>13 Oct 2020</t>
+  </si>
+  <si>
+    <t>14 Oct 2020</t>
+  </si>
+  <si>
+    <t>15 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -741,10 +702,10 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -753,10 +714,10 @@
         <v>93</v>
       </c>
       <c r="H2">
-        <v>793</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>33.06</v>
+        <v>2393.17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -767,25 +728,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>8400.98</v>
+        <v>1000.88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -796,25 +757,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>568.67</v>
+        <v>589.64</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -825,25 +786,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
         <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>4319.27</v>
+        <v>4149.78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -851,13 +812,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -866,13 +827,13 @@
         <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>2181.46</v>
+        <v>1659.63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -880,28 +841,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>823.72</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -909,28 +870,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>17556.41</v>
+        <v>739.24</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -938,28 +899,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>8000.48</v>
+        <v>531.14</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -967,28 +928,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
         <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H10">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>500</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -996,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H11">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>8136.66</v>
+        <v>12697.76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1025,28 +986,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1882.02</v>
+        <v>8102.55</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1054,28 +1015,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>10669.1</v>
+        <v>7478.74</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1083,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>
@@ -1098,13 +1059,13 @@
         <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>5344.64</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1115,25 +1076,25 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
         <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>4692.66</v>
+        <v>3924.57</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1144,25 +1105,25 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>1469.77</v>
+        <v>3660.03</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1173,25 +1134,25 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>700.47</v>
+        <v>3211.86</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1202,10 +1163,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
@@ -1214,13 +1175,13 @@
         <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>30852.9</v>
+        <v>2500.03</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1231,25 +1192,25 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>780.0599999999999</v>
+        <v>2137.81</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1260,10 +1221,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
@@ -1272,13 +1233,13 @@
         <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>308.02</v>
+        <v>1675.33</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1289,25 +1250,25 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>8387.059999999999</v>
+        <v>1622.98</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CashDropTable.xlsx
+++ b/Data/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,268 +40,301 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010509720</t>
-  </si>
-  <si>
-    <t>12010510414</t>
-  </si>
-  <si>
-    <t>12010500323</t>
-  </si>
-  <si>
-    <t>12010124696</t>
-  </si>
-  <si>
-    <t>12010145225</t>
-  </si>
-  <si>
-    <t>12010110187</t>
-  </si>
-  <si>
-    <t>12010500870</t>
-  </si>
-  <si>
-    <t>12010507668</t>
-  </si>
-  <si>
-    <t>12010503370</t>
-  </si>
-  <si>
-    <t>12010125022</t>
-  </si>
-  <si>
-    <t>12010508835</t>
-  </si>
-  <si>
-    <t>12010132310</t>
-  </si>
-  <si>
-    <t>12010511510</t>
-  </si>
-  <si>
-    <t>90000019420</t>
-  </si>
-  <si>
-    <t>12010506869</t>
-  </si>
-  <si>
-    <t>12010124872</t>
-  </si>
-  <si>
-    <t>12010145660</t>
-  </si>
-  <si>
-    <t>12010510526</t>
-  </si>
-  <si>
-    <t>Bismillah Pharmacy</t>
-  </si>
-  <si>
-    <t>Maa Pharmacy</t>
-  </si>
-  <si>
-    <t>Shiraj Pharmacy  Babu</t>
-  </si>
-  <si>
-    <t>Faisal Medicine Shop</t>
-  </si>
-  <si>
-    <t>Zaki Medical Hall</t>
-  </si>
-  <si>
-    <t>Good Luck Pharma</t>
-  </si>
-  <si>
-    <t>Mayer Doa Pharmacy</t>
-  </si>
-  <si>
-    <t>Ibn Sina Medical College</t>
-  </si>
-  <si>
-    <t>Sumaiya Drug House</t>
-  </si>
-  <si>
-    <t>Azim Pharmacy</t>
-  </si>
-  <si>
-    <t>Taj Pharmacy</t>
-  </si>
-  <si>
-    <t>Macca Pharmacy</t>
-  </si>
-  <si>
-    <t>Sawkat Medicall Hall</t>
-  </si>
-  <si>
-    <t>Medi Pharma  Old Aushad Bichit</t>
-  </si>
-  <si>
-    <t>Medi Pharma</t>
-  </si>
-  <si>
-    <t>Mirpur General Hospital &amp; Diag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 5, Borobag,Mirpur  02                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balur Mat,Mirpur 12,Dhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senpara Near Khan Pharma ,Mirpur 10,Mirpur                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasantak Bazar,Dhaka Cantonment,Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kashemer More, Ahamed Nagor, Mirpur-1                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 2, Ring Road,Shyamoli,Dhaka                              </t>
-  </si>
-  <si>
-    <t>House No 34, Tinshed Colony,  Infront of Rakib Ph,Mirpur 13,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 5, Borobag,Girza Road,Mirpur  2,Dhaka                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 1 B, Kallyanpur Bus Stand,Dhaka                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bikrampur Plaza, Plot # 35,under Islami Bank                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block#C,mirpur6,Pollobi,Dhaka-1216.                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhaka Shishu Hospital Gate,Shyamoli,Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhaka Shishu Hospital Gate,Shaymoli,Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mizan Tower,Kallanpur,Mirpur-1                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouniabad ,Block C,Mirpur 11,Dhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95 B, Borobag,Mirpur   2,Dhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sewden Plaza,Mirpur   2                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House No -1,Road-4/5,Pallabi , Mirpur,Dhaka                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-684892     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685003     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-684548     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685625     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685310     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685688     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685800     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685733     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686017     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685874     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686426     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686356     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686262     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685888     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685870     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685892     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686174     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686416     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686267     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685969     </t>
-  </si>
-  <si>
-    <t>13 Oct 2020</t>
-  </si>
-  <si>
-    <t>14 Oct 2020</t>
-  </si>
-  <si>
-    <t>15 Oct 2020</t>
+    <t>4401900438</t>
+  </si>
+  <si>
+    <t>44031100809</t>
+  </si>
+  <si>
+    <t>4401900390</t>
+  </si>
+  <si>
+    <t>44031199102</t>
+  </si>
+  <si>
+    <t>44019001840</t>
+  </si>
+  <si>
+    <t>44019001115</t>
+  </si>
+  <si>
+    <t>44019001559</t>
+  </si>
+  <si>
+    <t>4401900131</t>
+  </si>
+  <si>
+    <t>90000004772</t>
+  </si>
+  <si>
+    <t>90000015979</t>
+  </si>
+  <si>
+    <t>90000010362</t>
+  </si>
+  <si>
+    <t>90000021606</t>
+  </si>
+  <si>
+    <t>44037801306</t>
+  </si>
+  <si>
+    <t>44019000375</t>
+  </si>
+  <si>
+    <t>44019001149</t>
+  </si>
+  <si>
+    <t>44019000835</t>
+  </si>
+  <si>
+    <t>4401900167</t>
+  </si>
+  <si>
+    <t>Prottyasha Pharmacy</t>
+  </si>
+  <si>
+    <t>Ali Medical Store</t>
+  </si>
+  <si>
+    <t>Com Tech Drug And Surgical</t>
+  </si>
+  <si>
+    <t>Ureca Pharmacy</t>
+  </si>
+  <si>
+    <t>Mehedi Drug House</t>
+  </si>
+  <si>
+    <t>Kushol Pharmacy</t>
+  </si>
+  <si>
+    <t>Nipa Drug House</t>
+  </si>
+  <si>
+    <t>Khan Medicine House</t>
+  </si>
+  <si>
+    <t>Biswas Medicine &amp; Surgical</t>
+  </si>
+  <si>
+    <t>Kamal Drug House</t>
+  </si>
+  <si>
+    <t>Younus Medicine Corner</t>
+  </si>
+  <si>
+    <t>Khan Pharmacy</t>
+  </si>
+  <si>
+    <t>Joy Ma Pharmacy</t>
+  </si>
+  <si>
+    <t>Allahar Dan Pharmacy</t>
+  </si>
+  <si>
+    <t>Bondhon Mdical Hall</t>
+  </si>
+  <si>
+    <t>B N Pharmacy</t>
+  </si>
+  <si>
+    <t>Maya Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobra Bazar Narail                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thana Road Satkhira                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Jesore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Satkhira                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Lohagara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Road Monirampur Bazar Jesore                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 No, Punak Market,Jail Road,Jessore                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Bazar,Jessore                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road,Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shishu Hospital Gate,Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kholishkhali Patkelghata Satkhira                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Lohagara Narail                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail Road Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bango Bazar Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS76                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS105                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-164315     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-366840     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-367001     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-385823     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-385856     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-385830     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-450510     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459961     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461729     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468856     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-471591     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-472084     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-472497     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-473638     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-474488     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-474686     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-475065     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-477011     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-476676     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-477190     </t>
+  </si>
+  <si>
+    <t>18 Aug 2018</t>
+  </si>
+  <si>
+    <t>16 Feb 2020</t>
+  </si>
+  <si>
+    <t>17 Feb 2020</t>
+  </si>
+  <si>
+    <t>29 Mar 2020</t>
+  </si>
+  <si>
+    <t>19 Aug 2020</t>
+  </si>
+  <si>
+    <t>07 Sep 2020</t>
+  </si>
+  <si>
+    <t>11 Sep 2020</t>
+  </si>
+  <si>
+    <t>25 Sep 2020</t>
+  </si>
+  <si>
+    <t>30 Sep 2020</t>
+  </si>
+  <si>
+    <t>02 Oct 2020</t>
+  </si>
+  <si>
+    <t>03 Oct 2020</t>
+  </si>
+  <si>
+    <t>05 Oct 2020</t>
+  </si>
+  <si>
+    <t>06 Oct 2020</t>
+  </si>
+  <si>
+    <t>07 Oct 2020</t>
+  </si>
+  <si>
+    <t>11 Oct 2020</t>
+  </si>
+  <si>
+    <t>12 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -699,25 +732,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>797</v>
       </c>
       <c r="I2">
-        <v>2393.17</v>
+        <v>33.06</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -734,19 +767,19 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="I3">
-        <v>1000.88</v>
+        <v>8400.98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -763,19 +796,19 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
         <v>93</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="I4">
-        <v>589.64</v>
+        <v>568.67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -792,19 +825,19 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>94</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="I5">
-        <v>4149.78</v>
+        <v>4319.27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -812,28 +845,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>94</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="I6">
-        <v>1659.63</v>
+        <v>2181.46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -841,28 +874,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>94</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>823.72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -870,28 +903,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="I8">
-        <v>739.24</v>
+        <v>17556.41</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -899,28 +932,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I9">
-        <v>531.14</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -928,28 +961,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I10">
-        <v>15500</v>
+        <v>8136.66</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -957,28 +990,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I11">
-        <v>12697.76</v>
+        <v>1882.02</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -986,28 +1019,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I12">
-        <v>8102.55</v>
+        <v>10669.1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1015,28 +1048,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>7478.74</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1044,28 +1077,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>5344.64</v>
+        <v>4692.66</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1076,25 +1109,25 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I15">
-        <v>3924.57</v>
+        <v>1469.77</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1105,25 +1138,25 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I16">
-        <v>3660.03</v>
+        <v>700.47</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1134,25 +1167,25 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I17">
-        <v>3211.86</v>
+        <v>30852.9</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1163,25 +1196,25 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I18">
-        <v>2500.03</v>
+        <v>665.0599999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1189,28 +1222,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>2137.81</v>
+        <v>6406.33</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1218,28 +1251,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I20">
-        <v>1675.33</v>
+        <v>3749.78</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1247,28 +1280,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>1622.98</v>
+        <v>9898.219999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CashDropTable.xlsx
+++ b/Data/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,301 +40,310 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>4401900438</t>
-  </si>
-  <si>
-    <t>44031100809</t>
-  </si>
-  <si>
-    <t>4401900390</t>
-  </si>
-  <si>
-    <t>44031199102</t>
-  </si>
-  <si>
-    <t>44019001840</t>
-  </si>
-  <si>
-    <t>44019001115</t>
-  </si>
-  <si>
-    <t>44019001559</t>
-  </si>
-  <si>
-    <t>4401900131</t>
-  </si>
-  <si>
-    <t>90000004772</t>
-  </si>
-  <si>
-    <t>90000015979</t>
-  </si>
-  <si>
-    <t>90000010362</t>
-  </si>
-  <si>
-    <t>90000021606</t>
-  </si>
-  <si>
-    <t>44037801306</t>
-  </si>
-  <si>
-    <t>44019000375</t>
-  </si>
-  <si>
-    <t>44019001149</t>
-  </si>
-  <si>
-    <t>44019000835</t>
-  </si>
-  <si>
-    <t>4401900167</t>
-  </si>
-  <si>
-    <t>Prottyasha Pharmacy</t>
-  </si>
-  <si>
-    <t>Ali Medical Store</t>
-  </si>
-  <si>
-    <t>Com Tech Drug And Surgical</t>
-  </si>
-  <si>
-    <t>Ureca Pharmacy</t>
-  </si>
-  <si>
-    <t>Mehedi Drug House</t>
-  </si>
-  <si>
-    <t>Kushol Pharmacy</t>
-  </si>
-  <si>
-    <t>Nipa Drug House</t>
-  </si>
-  <si>
-    <t>Khan Medicine House</t>
-  </si>
-  <si>
-    <t>Biswas Medicine &amp; Surgical</t>
-  </si>
-  <si>
-    <t>Kamal Drug House</t>
-  </si>
-  <si>
-    <t>Younus Medicine Corner</t>
-  </si>
-  <si>
-    <t>Khan Pharmacy</t>
-  </si>
-  <si>
-    <t>Joy Ma Pharmacy</t>
-  </si>
-  <si>
-    <t>Allahar Dan Pharmacy</t>
-  </si>
-  <si>
-    <t>Bondhon Mdical Hall</t>
-  </si>
-  <si>
-    <t>B N Pharmacy</t>
-  </si>
-  <si>
-    <t>Maya Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gobra Bazar Narail                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thana Road Satkhira                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Jesore                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Satkhira                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jail Road Jessore                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Lohagara                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monirampur Jessore                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Road Monirampur Bazar Jesore                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 No, Punak Market,Jail Road,Jessore                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monirampur Bazar,Jessore                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jail Road,Jessore                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shishu Hospital Gate,Satkhira                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kholishkhali Patkelghata Satkhira                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Jessore                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Lohagara Narail                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rail Road Jessore                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bango Bazar Jessore                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS76                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS101                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS105                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-164315     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-366840     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-367001     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-385823     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-385856     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-385830     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-450510     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-459961     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-461729     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468856     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-471591     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-472084     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-472497     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-473638     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-474488     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-474686     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-475065     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-477011     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-476676     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-477190     </t>
-  </si>
-  <si>
-    <t>18 Aug 2018</t>
-  </si>
-  <si>
-    <t>16 Feb 2020</t>
-  </si>
-  <si>
-    <t>17 Feb 2020</t>
-  </si>
-  <si>
-    <t>29 Mar 2020</t>
-  </si>
-  <si>
-    <t>19 Aug 2020</t>
-  </si>
-  <si>
-    <t>07 Sep 2020</t>
-  </si>
-  <si>
-    <t>11 Sep 2020</t>
-  </si>
-  <si>
-    <t>25 Sep 2020</t>
-  </si>
-  <si>
-    <t>30 Sep 2020</t>
-  </si>
-  <si>
-    <t>02 Oct 2020</t>
-  </si>
-  <si>
-    <t>03 Oct 2020</t>
-  </si>
-  <si>
-    <t>05 Oct 2020</t>
-  </si>
-  <si>
-    <t>06 Oct 2020</t>
-  </si>
-  <si>
-    <t>07 Oct 2020</t>
-  </si>
-  <si>
-    <t>11 Oct 2020</t>
+    <t>27012111163</t>
+  </si>
+  <si>
+    <t>27012110123</t>
+  </si>
+  <si>
+    <t>27012111657</t>
+  </si>
+  <si>
+    <t>27012101155</t>
+  </si>
+  <si>
+    <t>27012101879</t>
+  </si>
+  <si>
+    <t>27012111516</t>
+  </si>
+  <si>
+    <t>27012101473</t>
+  </si>
+  <si>
+    <t>27012111487</t>
+  </si>
+  <si>
+    <t>27021006605</t>
+  </si>
+  <si>
+    <t>27012101695</t>
+  </si>
+  <si>
+    <t>27021001795</t>
+  </si>
+  <si>
+    <t>27012100344</t>
+  </si>
+  <si>
+    <t>27012120465</t>
+  </si>
+  <si>
+    <t>270216566730</t>
+  </si>
+  <si>
+    <t>90000021928</t>
+  </si>
+  <si>
+    <t>27021100897</t>
+  </si>
+  <si>
+    <t>27012121149</t>
+  </si>
+  <si>
+    <t>27012101775</t>
+  </si>
+  <si>
+    <t>27012121188</t>
+  </si>
+  <si>
+    <t>27012112956</t>
+  </si>
+  <si>
+    <t>Yousuf Medical Hall</t>
+  </si>
+  <si>
+    <t>Al Modina Pharmacy</t>
+  </si>
+  <si>
+    <t>Sonali Drug House</t>
+  </si>
+  <si>
+    <t>Royal Pharmacy</t>
+  </si>
+  <si>
+    <t>Rahman Medical Hall</t>
+  </si>
+  <si>
+    <t>Prianka Pharmacy</t>
+  </si>
+  <si>
+    <t>Miazi Medical Hall</t>
+  </si>
+  <si>
+    <t>Muntaha Medical Hall</t>
+  </si>
+  <si>
+    <t>Biddut Pharmacy</t>
+  </si>
+  <si>
+    <t>Basurhat Durg House</t>
+  </si>
+  <si>
+    <t>Ekata Diagnostic Centre</t>
+  </si>
+  <si>
+    <t>Bhowmik Pharmacy</t>
+  </si>
+  <si>
+    <t>Fatema Medical Hall</t>
+  </si>
+  <si>
+    <t>Saiful Medical Hall</t>
+  </si>
+  <si>
+    <t>Grameen Medical Hall</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Pharmacy</t>
+  </si>
+  <si>
+    <t>Ismail Medicine Shop</t>
+  </si>
+  <si>
+    <t>Novo Aushad Ghor</t>
+  </si>
+  <si>
+    <t>Health Care Pharmacy</t>
+  </si>
+  <si>
+    <t>Fatema Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bariyerhat,Zorargonj,Chittagong                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazilerghat Road Dagonbhuiyan                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhagolnaiya                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhagolnaiya Feni                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Road Basurhat Noakhali                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagonbhuiyan                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Market, Dhagonbhuyan                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matubhuiyan Dagonbhuiyan                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longgudu Mynee                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Basurhat Noakhali                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court Road Khagrachari                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaprashirhat Basurhat Noakhali                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santidara,R/A                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gumti Bazar Chittagong                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate,Basurhat                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosjid Market Baghaichari Rangamati                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine Market, Baspara                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail gate Feni                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulovi Bazar Feni Feni                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobiullah Bazar                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK65                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR84                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK64                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK56                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-12199      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-329301     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-343675     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-344923     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-354713     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356415     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356330     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356380     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356865     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356927     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356648     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356801     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356474     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356667     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356777     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356921     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356976     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356939     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-356989     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-357013     </t>
+  </si>
+  <si>
+    <t>15 Apr 2017</t>
+  </si>
+  <si>
+    <t>26 Jul 2020</t>
+  </si>
+  <si>
+    <t>09 Sep 2020</t>
+  </si>
+  <si>
+    <t>13 Sep 2020</t>
   </si>
   <si>
     <t>12 Oct 2020</t>
+  </si>
+  <si>
+    <t>18 Oct 2020</t>
+  </si>
+  <si>
+    <t>19 Oct 2020</t>
+  </si>
+  <si>
+    <t>20 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -732,25 +741,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H2">
-        <v>797</v>
+        <v>1290</v>
       </c>
       <c r="I2">
-        <v>33.06</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -761,25 +770,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3">
         <v>92</v>
       </c>
-      <c r="H3">
-        <v>250</v>
-      </c>
       <c r="I3">
-        <v>8400.98</v>
+        <v>4930.01</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -790,25 +799,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H4">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="I4">
-        <v>568.67</v>
+        <v>26887.81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -819,25 +828,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H5">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>4319.27</v>
+        <v>3000.97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -845,28 +854,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H6">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>2181.46</v>
+        <v>11030.58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -874,28 +883,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H7">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>823.72</v>
+        <v>6008.87</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -903,28 +912,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H8">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>17556.41</v>
+        <v>1851.42</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -932,28 +941,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>500</v>
+        <v>770.05</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -961,28 +970,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H10">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>8136.66</v>
+        <v>7000.38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -990,28 +999,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>1882.02</v>
+        <v>6040.08</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1019,28 +1028,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>10669.1</v>
+        <v>5947.84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1048,28 +1057,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>5235.32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1077,28 +1086,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>4692.66</v>
+        <v>3664.74</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1106,28 +1115,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>1469.77</v>
+        <v>1890.66</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1135,28 +1144,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>700.47</v>
+        <v>1434.46</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1164,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>30852.9</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1193,28 +1202,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>665.0599999999999</v>
+        <v>6724.61</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1222,28 +1231,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>6406.33</v>
+        <v>5278.8</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1251,28 +1260,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>3749.78</v>
+        <v>4654.89</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1280,28 +1289,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>9898.219999999999</v>
+        <v>4261.31</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CashDropTable.xlsx
+++ b/Data/CashDropTable.xlsx
@@ -40,310 +40,310 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>27012111163</t>
-  </si>
-  <si>
-    <t>27012110123</t>
-  </si>
-  <si>
-    <t>27012111657</t>
-  </si>
-  <si>
-    <t>27012101155</t>
-  </si>
-  <si>
-    <t>27012101879</t>
-  </si>
-  <si>
-    <t>27012111516</t>
-  </si>
-  <si>
-    <t>27012101473</t>
-  </si>
-  <si>
-    <t>27012111487</t>
-  </si>
-  <si>
-    <t>27021006605</t>
-  </si>
-  <si>
-    <t>27012101695</t>
-  </si>
-  <si>
-    <t>27021001795</t>
-  </si>
-  <si>
-    <t>27012100344</t>
-  </si>
-  <si>
-    <t>27012120465</t>
-  </si>
-  <si>
-    <t>270216566730</t>
-  </si>
-  <si>
-    <t>90000021928</t>
-  </si>
-  <si>
-    <t>27021100897</t>
-  </si>
-  <si>
-    <t>27012121149</t>
-  </si>
-  <si>
-    <t>27012101775</t>
-  </si>
-  <si>
-    <t>27012121188</t>
-  </si>
-  <si>
-    <t>27012112956</t>
-  </si>
-  <si>
-    <t>Yousuf Medical Hall</t>
-  </si>
-  <si>
-    <t>Al Modina Pharmacy</t>
-  </si>
-  <si>
-    <t>Sonali Drug House</t>
-  </si>
-  <si>
-    <t>Royal Pharmacy</t>
-  </si>
-  <si>
-    <t>Rahman Medical Hall</t>
-  </si>
-  <si>
-    <t>Prianka Pharmacy</t>
-  </si>
-  <si>
-    <t>Miazi Medical Hall</t>
-  </si>
-  <si>
-    <t>Muntaha Medical Hall</t>
-  </si>
-  <si>
-    <t>Biddut Pharmacy</t>
-  </si>
-  <si>
-    <t>Basurhat Durg House</t>
-  </si>
-  <si>
-    <t>Ekata Diagnostic Centre</t>
-  </si>
-  <si>
-    <t>Bhowmik Pharmacy</t>
-  </si>
-  <si>
-    <t>Fatema Medical Hall</t>
-  </si>
-  <si>
-    <t>Saiful Medical Hall</t>
-  </si>
-  <si>
-    <t>Grameen Medical Hall</t>
-  </si>
-  <si>
-    <t>Bhai Bhai Pharmacy</t>
-  </si>
-  <si>
-    <t>Ismail Medicine Shop</t>
-  </si>
-  <si>
-    <t>Novo Aushad Ghor</t>
-  </si>
-  <si>
-    <t>Health Care Pharmacy</t>
-  </si>
-  <si>
-    <t>Fatema Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bariyerhat,Zorargonj,Chittagong                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fazilerghat Road Dagonbhuiyan                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chhagolnaiya                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chhagolnaiya Feni                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Road Basurhat Noakhali                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dagonbhuiyan                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">School Market, Dhagonbhuyan                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matubhuiyan Dagonbhuiyan                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longgudu Mynee                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Road Basurhat Noakhali                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Court Road Khagrachari                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaprashirhat Basurhat Noakhali                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santidara,R/A                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gumti Bazar Chittagong                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate,Basurhat                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosjid Market Baghaichari Rangamati                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicine Market, Baspara                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rail gate Feni                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moulovi Bazar Feni Feni                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobiullah Bazar                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK65                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR84                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK56                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-12199      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-329301     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-343675     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-344923     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-354713     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356415     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356330     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356380     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356865     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356927     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356648     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356801     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356474     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356667     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356777     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356921     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356976     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356939     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-356989     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV270-357013     </t>
-  </si>
-  <si>
-    <t>15 Apr 2017</t>
-  </si>
-  <si>
-    <t>26 Jul 2020</t>
-  </si>
-  <si>
-    <t>09 Sep 2020</t>
-  </si>
-  <si>
-    <t>13 Sep 2020</t>
-  </si>
-  <si>
-    <t>12 Oct 2020</t>
-  </si>
-  <si>
-    <t>18 Oct 2020</t>
-  </si>
-  <si>
-    <t>19 Oct 2020</t>
-  </si>
-  <si>
-    <t>20 Oct 2020</t>
+    <t>12010506136</t>
+  </si>
+  <si>
+    <t>12010146695</t>
+  </si>
+  <si>
+    <t>12010130133</t>
+  </si>
+  <si>
+    <t>90000030855</t>
+  </si>
+  <si>
+    <t>12010509979</t>
+  </si>
+  <si>
+    <t>12010121302</t>
+  </si>
+  <si>
+    <t>12010511132</t>
+  </si>
+  <si>
+    <t>12010510125</t>
+  </si>
+  <si>
+    <t>12010503226</t>
+  </si>
+  <si>
+    <t>90000021395</t>
+  </si>
+  <si>
+    <t>12010145119</t>
+  </si>
+  <si>
+    <t>90000040534</t>
+  </si>
+  <si>
+    <t>12010500696</t>
+  </si>
+  <si>
+    <t>12010503632</t>
+  </si>
+  <si>
+    <t>90000030252</t>
+  </si>
+  <si>
+    <t>12010146188</t>
+  </si>
+  <si>
+    <t>12013138206</t>
+  </si>
+  <si>
+    <t>12010510533</t>
+  </si>
+  <si>
+    <t>12010509395</t>
+  </si>
+  <si>
+    <t>12010507619</t>
+  </si>
+  <si>
+    <t>Pharma Plus</t>
+  </si>
+  <si>
+    <t>Pharma Land</t>
+  </si>
+  <si>
+    <t>Harun Eye Foundation And Hospi</t>
+  </si>
+  <si>
+    <t>Mollah Pharmacy</t>
+  </si>
+  <si>
+    <t>Anower Khan Modern Hospital In</t>
+  </si>
+  <si>
+    <t>Sheba Pharmacy</t>
+  </si>
+  <si>
+    <t>Mizan Pharmacy</t>
+  </si>
+  <si>
+    <t>Friends Pharma</t>
+  </si>
+  <si>
+    <t>S B Medicine Corner</t>
+  </si>
+  <si>
+    <t>Apon Medicine Corner</t>
+  </si>
+  <si>
+    <t>Sarker Pharmacy</t>
+  </si>
+  <si>
+    <t>ALIF PHARMACY</t>
+  </si>
+  <si>
+    <t>Keranigonj Pharmacy</t>
+  </si>
+  <si>
+    <t>Jononi Pharmacy</t>
+  </si>
+  <si>
+    <t>Allahardan Medical Hall</t>
+  </si>
+  <si>
+    <t>Belle View Pharma</t>
+  </si>
+  <si>
+    <t>Alfaz Medicine Corner</t>
+  </si>
+  <si>
+    <t>Lazz Pharma 2</t>
+  </si>
+  <si>
+    <t>Fariha Pharmacy</t>
+  </si>
+  <si>
+    <t>Noor Pharmacy 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajuk ComplaxUttoraDhaka                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 2 A Road 2 BSector 11 Main Road Uttara                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 12 A Road No 5 Dhanmondi Mirpur RoadDhaka             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sankor Plaza More,Sankor,Dhanmondi,Dhaka.                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanmondi 8Dhaka                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanker, Zafrabad, Dhaka                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 Gausul Azam MarketNilkhetDhaka                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road 18 Nikonjo 02                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikunzo 2 UttoraDhaka                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kha - 2,Nikunjo,Dhaka                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziz Co Operative MarketShahbagDhaka                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azampur Kacha Bazar,Dakkhin Khan,Uttara,Dhaka.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziz Co operative Medicine MarketShahabagDhaka              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulbaria Sector 10 Road 01UttaraDhaka                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherbari,Uttarar Khan,Uttara.                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShahbagDhaka                                                </t>
+  </si>
+  <si>
+    <t>Amir Complex, Ka-3/1C, Jagannathpur, Bashundhara Road,Vatara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takia CenterHouse 39 Sector 06Sonargaon Janapath Road       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House 36 Sonargon JanopathSector 9 Dhaka                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azampur Kacha BazarNear Shah Kabir PharUttara               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM15                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN-0117698        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN-0121028        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-884677     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1071854    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1073272    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1075252    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1075014    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1076537    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1076538    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1076539    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1076170    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1075992    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1075713    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1076001    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1076485    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1077086    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1077318    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1076693    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1076853    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV120-1077029    </t>
+  </si>
+  <si>
+    <t>24 Aug 2011</t>
+  </si>
+  <si>
+    <t>28 Aug 2011</t>
+  </si>
+  <si>
+    <t>24 Feb 2020</t>
+  </si>
+  <si>
+    <t>21 Oct 2020</t>
+  </si>
+  <si>
+    <t>22 Oct 2020</t>
+  </si>
+  <si>
+    <t>25 Oct 2020</t>
+  </si>
+  <si>
+    <t>26 Oct 2020</t>
+  </si>
+  <si>
+    <t>27 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -756,10 +756,10 @@
         <v>102</v>
       </c>
       <c r="H2">
-        <v>1290</v>
+        <v>3357</v>
       </c>
       <c r="I2">
-        <v>17.13</v>
+        <v>8081.55</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -785,10 +785,10 @@
         <v>103</v>
       </c>
       <c r="H3">
-        <v>92</v>
+        <v>3353</v>
       </c>
       <c r="I3">
-        <v>4930.01</v>
+        <v>10895.59</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -814,10 +814,10 @@
         <v>104</v>
       </c>
       <c r="H4">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="I4">
-        <v>26887.81</v>
+        <v>21561.73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -843,10 +843,10 @@
         <v>105</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>3000.97</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -872,10 +872,10 @@
         <v>106</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>11030.58</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -892,7 +892,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
@@ -901,10 +901,10 @@
         <v>107</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>6008.87</v>
+        <v>2338.96</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -921,7 +921,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -930,10 +930,10 @@
         <v>107</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>1851.42</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -950,19 +950,19 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
         <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>770.05</v>
+        <v>9738.379999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -979,7 +979,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
@@ -988,10 +988,10 @@
         <v>108</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>7000.38</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1008,7 +1008,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -1017,10 +1017,10 @@
         <v>108</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>6040.08</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1037,7 +1037,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
@@ -1046,10 +1046,10 @@
         <v>108</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>5947.84</v>
+        <v>1890.76</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1075,10 +1075,10 @@
         <v>108</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>5235.32</v>
+        <v>1618.64</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1104,10 +1104,10 @@
         <v>108</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>3664.74</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1133,10 +1133,10 @@
         <v>108</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>1890.66</v>
+        <v>1227.8</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1153,7 +1153,7 @@
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
@@ -1162,10 +1162,10 @@
         <v>108</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>1434.46</v>
+        <v>581.64</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1182,19 +1182,19 @@
         <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>715</v>
+        <v>9842</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1211,7 +1211,7 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -1220,10 +1220,10 @@
         <v>109</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>6724.61</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1240,7 +1240,7 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -1249,10 +1249,10 @@
         <v>109</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>5278.8</v>
+        <v>7240.71</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1269,7 +1269,7 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
         <v>100</v>
@@ -1278,10 +1278,10 @@
         <v>109</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>4654.89</v>
+        <v>6637.92</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1298,7 +1298,7 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>101</v>
@@ -1307,10 +1307,10 @@
         <v>109</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>4261.31</v>
+        <v>5252.89</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CashDropTable.xlsx
+++ b/Data/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,295 +40,286 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010506136</t>
-  </si>
-  <si>
-    <t>12010146695</t>
-  </si>
-  <si>
-    <t>12010130133</t>
-  </si>
-  <si>
-    <t>90000030855</t>
-  </si>
-  <si>
-    <t>12010509979</t>
-  </si>
-  <si>
-    <t>12010121302</t>
-  </si>
-  <si>
-    <t>12010511132</t>
-  </si>
-  <si>
-    <t>12010510125</t>
-  </si>
-  <si>
-    <t>12010503226</t>
-  </si>
-  <si>
-    <t>90000021395</t>
-  </si>
-  <si>
-    <t>12010145119</t>
-  </si>
-  <si>
-    <t>90000040534</t>
-  </si>
-  <si>
-    <t>12010500696</t>
-  </si>
-  <si>
-    <t>12010503632</t>
-  </si>
-  <si>
-    <t>90000030252</t>
-  </si>
-  <si>
-    <t>12010146188</t>
-  </si>
-  <si>
-    <t>12013138206</t>
-  </si>
-  <si>
-    <t>12010510533</t>
-  </si>
-  <si>
-    <t>12010509395</t>
-  </si>
-  <si>
-    <t>12010507619</t>
-  </si>
-  <si>
-    <t>Pharma Plus</t>
-  </si>
-  <si>
-    <t>Pharma Land</t>
-  </si>
-  <si>
-    <t>Harun Eye Foundation And Hospi</t>
-  </si>
-  <si>
-    <t>Mollah Pharmacy</t>
-  </si>
-  <si>
-    <t>Anower Khan Modern Hospital In</t>
-  </si>
-  <si>
-    <t>Sheba Pharmacy</t>
-  </si>
-  <si>
-    <t>Mizan Pharmacy</t>
-  </si>
-  <si>
-    <t>Friends Pharma</t>
-  </si>
-  <si>
-    <t>S B Medicine Corner</t>
-  </si>
-  <si>
-    <t>Apon Medicine Corner</t>
-  </si>
-  <si>
-    <t>Sarker Pharmacy</t>
-  </si>
-  <si>
-    <t>ALIF PHARMACY</t>
-  </si>
-  <si>
-    <t>Keranigonj Pharmacy</t>
-  </si>
-  <si>
-    <t>Jononi Pharmacy</t>
-  </si>
-  <si>
-    <t>Allahardan Medical Hall</t>
-  </si>
-  <si>
-    <t>Belle View Pharma</t>
-  </si>
-  <si>
-    <t>Alfaz Medicine Corner</t>
-  </si>
-  <si>
-    <t>Lazz Pharma 2</t>
-  </si>
-  <si>
-    <t>Fariha Pharmacy</t>
-  </si>
-  <si>
-    <t>Noor Pharmacy 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajuk ComplaxUttoraDhaka                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 2 A Road 2 BSector 11 Main Road Uttara                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 12 A Road No 5 Dhanmondi Mirpur RoadDhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sankor Plaza More,Sankor,Dhanmondi,Dhaka.                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhanmondi 8Dhaka                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanker, Zafrabad, Dhaka                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 Gausul Azam MarketNilkhetDhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road 18 Nikonjo 02                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikunzo 2 UttoraDhaka                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kha - 2,Nikunjo,Dhaka                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co Operative MarketShahbagDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur Kacha Bazar,Dakkhin Khan,Uttara,Dhaka.              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co operative Medicine MarketShahabagDhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulbaria Sector 10 Road 01UttaraDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherbari,Uttarar Khan,Uttara.                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShahbagDhaka                                                </t>
-  </si>
-  <si>
-    <t>Amir Complex, Ka-3/1C, Jagannathpur, Bashundhara Road,Vatara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takia CenterHouse 39 Sector 06Sonargaon Janapath Road       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 36 Sonargon JanopathSector 9 Dhaka                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur Kacha BazarNear Shah Kabir PharUttara               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM15                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN-0117698        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN-0121028        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-884677     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1071854    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1073272    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1075252    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1075014    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076537    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076538    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076539    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076170    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1075992    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1075713    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076001    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076485    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077086    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077318    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076693    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076853    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077029    </t>
-  </si>
-  <si>
-    <t>24 Aug 2011</t>
-  </si>
-  <si>
-    <t>28 Aug 2011</t>
-  </si>
-  <si>
-    <t>24 Feb 2020</t>
+    <t>33091102796</t>
+  </si>
+  <si>
+    <t>33091133243</t>
+  </si>
+  <si>
+    <t>33091134918</t>
+  </si>
+  <si>
+    <t>33091101132</t>
+  </si>
+  <si>
+    <t>33091102432</t>
+  </si>
+  <si>
+    <t>90000028053</t>
+  </si>
+  <si>
+    <t>33091134195</t>
+  </si>
+  <si>
+    <t>33091101657</t>
+  </si>
+  <si>
+    <t>33091134924</t>
+  </si>
+  <si>
+    <t>33091106192</t>
+  </si>
+  <si>
+    <t>33091134173</t>
+  </si>
+  <si>
+    <t>90000038200</t>
+  </si>
+  <si>
+    <t>33091106076</t>
+  </si>
+  <si>
+    <t>33091107037</t>
+  </si>
+  <si>
+    <t>90000013666</t>
+  </si>
+  <si>
+    <t>33091134607</t>
+  </si>
+  <si>
+    <t>33091002760</t>
+  </si>
+  <si>
+    <t>33091107153</t>
+  </si>
+  <si>
+    <t>Shoma Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Irin Pharmacy</t>
+  </si>
+  <si>
+    <t>Golden Surgical And Medicin</t>
+  </si>
+  <si>
+    <t>Badsha Medical Store</t>
+  </si>
+  <si>
+    <t>Paglarpir Pharmacy</t>
+  </si>
+  <si>
+    <t>Mousumi Medicine Corner</t>
+  </si>
+  <si>
+    <t>S D R Pharmacy</t>
+  </si>
+  <si>
+    <t>Sebok Medical Store</t>
+  </si>
+  <si>
+    <t>Ripon Pharmacy</t>
+  </si>
+  <si>
+    <t>Sujon Pharmacy</t>
+  </si>
+  <si>
+    <t>Sejuti Pharmacy</t>
+  </si>
+  <si>
+    <t>Update Medicine</t>
+  </si>
+  <si>
+    <t>Kollan Pharmacy</t>
+  </si>
+  <si>
+    <t>Pulse Pharmacy</t>
+  </si>
+  <si>
+    <t>Swapon Surgical</t>
+  </si>
+  <si>
+    <t>Sotota Pharmecy</t>
+  </si>
+  <si>
+    <t>Setu Pharmacy</t>
+  </si>
+  <si>
+    <t>Durgapur Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Rajerhat                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nageswari Nageswari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Care Clinic Chek Post Rangpur                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazer Road Ulipur                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paglarpir Paglarpir                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulipur Bazar, Kurigram                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziz Super Market Station Road Rangpur                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Stand Gaibandha                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Bdaiakhali,Gaibandha                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatibandha Hariakuti 2 KM From Dangirhat Paglapir           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borokhata Hatibandha Lalmonirhat                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gongachara Bazar,Rangpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puraton Bazar Lalmonirhat                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazzar Road Nageswari Kurigram                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhap, Near Microlab, Rangpur.                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourobazar Kurigram                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangachara Gangachara                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durgapur Durgapur Durgapur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS27                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-372481     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-471878     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-472391     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474130     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-476189     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-479996     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-481814     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482255     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482125     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482021     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482579     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482864     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482853     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483031     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483439     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483568     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483567     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483939     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483736     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483604     </t>
+  </si>
+  <si>
+    <t>29 Feb 2020</t>
+  </si>
+  <si>
+    <t>01 Oct 2020</t>
+  </si>
+  <si>
+    <t>03 Oct 2020</t>
+  </si>
+  <si>
+    <t>06 Oct 2020</t>
+  </si>
+  <si>
+    <t>10 Oct 2020</t>
+  </si>
+  <si>
+    <t>18 Oct 2020</t>
   </si>
   <si>
     <t>21 Oct 2020</t>
@@ -337,13 +328,16 @@
     <t>22 Oct 2020</t>
   </si>
   <si>
+    <t>23 Oct 2020</t>
+  </si>
+  <si>
+    <t>24 Oct 2020</t>
+  </si>
+  <si>
     <t>25 Oct 2020</t>
   </si>
   <si>
     <t>26 Oct 2020</t>
-  </si>
-  <si>
-    <t>27 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -741,25 +735,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H2">
-        <v>3357</v>
+        <v>248</v>
       </c>
       <c r="I2">
-        <v>8081.55</v>
+        <v>1727.47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -770,25 +764,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H3">
-        <v>3353</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>10895.59</v>
+        <v>2116.46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -799,25 +793,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H4">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="I4">
-        <v>21561.73</v>
+        <v>2404.83</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -828,25 +822,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>5237</v>
+        <v>9079.27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -857,25 +851,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I6">
-        <v>9240</v>
+        <v>2000.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -886,25 +880,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>2338.96</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -915,25 +909,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>500</v>
+        <v>229.89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -944,25 +938,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>9738.379999999999</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -973,25 +967,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>4400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1002,25 +996,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>4400</v>
+        <v>1778.85</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1031,25 +1025,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>1890.76</v>
+        <v>2536.6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1060,25 +1054,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>1618.64</v>
+        <v>2460.55</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1086,28 +1080,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>1520</v>
+        <v>1448.46</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1115,28 +1109,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>1227.8</v>
+        <v>509.52</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1144,28 +1138,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>581.64</v>
+        <v>2089.56</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1173,28 +1167,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>9842</v>
+        <v>3545.75</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1202,28 +1196,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>8800</v>
+        <v>2526.09</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1231,28 +1225,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>7240.71</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1260,28 +1254,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>6637.92</v>
+        <v>1225.47</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1289,28 +1283,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>5252.89</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CashDropTable.xlsx
+++ b/Data/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,304 +40,319 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>33091102796</t>
-  </si>
-  <si>
-    <t>33091133243</t>
-  </si>
-  <si>
-    <t>33091134918</t>
-  </si>
-  <si>
-    <t>33091101132</t>
-  </si>
-  <si>
-    <t>33091102432</t>
-  </si>
-  <si>
-    <t>90000028053</t>
-  </si>
-  <si>
-    <t>33091134195</t>
-  </si>
-  <si>
-    <t>33091101657</t>
-  </si>
-  <si>
-    <t>33091134924</t>
-  </si>
-  <si>
-    <t>33091106192</t>
-  </si>
-  <si>
-    <t>33091134173</t>
-  </si>
-  <si>
-    <t>90000038200</t>
-  </si>
-  <si>
-    <t>33091106076</t>
-  </si>
-  <si>
-    <t>33091107037</t>
-  </si>
-  <si>
-    <t>90000013666</t>
-  </si>
-  <si>
-    <t>33091134607</t>
-  </si>
-  <si>
-    <t>33091002760</t>
-  </si>
-  <si>
-    <t>33091107153</t>
-  </si>
-  <si>
-    <t>Shoma Pharmacy</t>
-  </si>
-  <si>
-    <t>Dr Irin Pharmacy</t>
-  </si>
-  <si>
-    <t>Golden Surgical And Medicin</t>
-  </si>
-  <si>
-    <t>Badsha Medical Store</t>
-  </si>
-  <si>
-    <t>Paglarpir Pharmacy</t>
-  </si>
-  <si>
-    <t>Mousumi Medicine Corner</t>
-  </si>
-  <si>
-    <t>S D R Pharmacy</t>
-  </si>
-  <si>
-    <t>Sebok Medical Store</t>
-  </si>
-  <si>
-    <t>Ripon Pharmacy</t>
-  </si>
-  <si>
-    <t>Sujon Pharmacy</t>
-  </si>
-  <si>
-    <t>Sejuti Pharmacy</t>
-  </si>
-  <si>
-    <t>Update Medicine</t>
-  </si>
-  <si>
-    <t>Kollan Pharmacy</t>
-  </si>
-  <si>
-    <t>Pulse Pharmacy</t>
-  </si>
-  <si>
-    <t>Swapon Surgical</t>
-  </si>
-  <si>
-    <t>Sotota Pharmecy</t>
-  </si>
-  <si>
-    <t>Setu Pharmacy</t>
-  </si>
-  <si>
-    <t>Durgapur Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Road Rajerhat                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nageswari Nageswari                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Care Clinic Chek Post Rangpur                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazer Road Ulipur                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paglarpir Paglarpir                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulipur Bazar, Kurigram                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Super Market Station Road Rangpur                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Stand Gaibandha                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Bdaiakhali,Gaibandha                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hatibandha Hariakuti 2 KM From Dangirhat Paglapir           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borokhata Hatibandha Lalmonirhat                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gongachara Bazar,Rangpur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puraton Bazar Lalmonirhat                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazzar Road Nageswari Kurigram                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhap, Near Microlab, Rangpur.                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pourobazar Kurigram                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gangachara Gangachara                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durgapur Durgapur Durgapur                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK101                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS27                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK91                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK102                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-372481     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-471878     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-472391     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474130     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-476189     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-479996     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-481814     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-482255     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-482125     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-482021     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-482579     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-482864     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-482853     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-483031     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-483439     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-483568     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-483567     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-483939     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-483736     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-483604     </t>
-  </si>
-  <si>
-    <t>29 Feb 2020</t>
-  </si>
-  <si>
-    <t>01 Oct 2020</t>
-  </si>
-  <si>
-    <t>03 Oct 2020</t>
-  </si>
-  <si>
-    <t>06 Oct 2020</t>
-  </si>
-  <si>
-    <t>10 Oct 2020</t>
-  </si>
-  <si>
-    <t>18 Oct 2020</t>
-  </si>
-  <si>
-    <t>21 Oct 2020</t>
-  </si>
-  <si>
-    <t>22 Oct 2020</t>
-  </si>
-  <si>
-    <t>23 Oct 2020</t>
-  </si>
-  <si>
-    <t>24 Oct 2020</t>
-  </si>
-  <si>
-    <t>25 Oct 2020</t>
-  </si>
-  <si>
-    <t>26 Oct 2020</t>
+    <t>51052104235</t>
+  </si>
+  <si>
+    <t>51051100196</t>
+  </si>
+  <si>
+    <t>51051000923</t>
+  </si>
+  <si>
+    <t>51051100189</t>
+  </si>
+  <si>
+    <t>51052149835</t>
+  </si>
+  <si>
+    <t>51051101537</t>
+  </si>
+  <si>
+    <t>90000023466</t>
+  </si>
+  <si>
+    <t>51051101542</t>
+  </si>
+  <si>
+    <t>51052149502</t>
+  </si>
+  <si>
+    <t>90000046949</t>
+  </si>
+  <si>
+    <t>90000007643</t>
+  </si>
+  <si>
+    <t>51011113393</t>
+  </si>
+  <si>
+    <t>51011112056</t>
+  </si>
+  <si>
+    <t>90000004905</t>
+  </si>
+  <si>
+    <t>51051002117</t>
+  </si>
+  <si>
+    <t>51011136674</t>
+  </si>
+  <si>
+    <t>51052149492</t>
+  </si>
+  <si>
+    <t>51011136999</t>
+  </si>
+  <si>
+    <t>51051001087</t>
+  </si>
+  <si>
+    <t>51011117990</t>
+  </si>
+  <si>
+    <t>Seba Drug House</t>
+  </si>
+  <si>
+    <t>Bengal Traders</t>
+  </si>
+  <si>
+    <t>Kalpana Medical Hall</t>
+  </si>
+  <si>
+    <t>Zakir Medical Hall</t>
+  </si>
+  <si>
+    <t>Tanjil Medical Hall</t>
+  </si>
+  <si>
+    <t>Sarmin Medical Hall</t>
+  </si>
+  <si>
+    <t>Allah Safi Health Care</t>
+  </si>
+  <si>
+    <t>Abdul Rahman Medical Hall</t>
+  </si>
+  <si>
+    <t>Hazi Medical Hall</t>
+  </si>
+  <si>
+    <t>Nirapod Shasto seba Diagnostic</t>
+  </si>
+  <si>
+    <t>Al Amin Pharmacy</t>
+  </si>
+  <si>
+    <t>Maya Pharmacy</t>
+  </si>
+  <si>
+    <t>Gita Drug House</t>
+  </si>
+  <si>
+    <t>Lake View Pharmacy</t>
+  </si>
+  <si>
+    <t>Zakaria Medical Hall</t>
+  </si>
+  <si>
+    <t>Anadhi Medical Hall</t>
+  </si>
+  <si>
+    <t>Ezi Medical Hall</t>
+  </si>
+  <si>
+    <t>Rifat Pharmicy</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>Rekha Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guachittra Banaripara Barisal                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Barisal                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patarhat Mehendiganj Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalmohan Bhola                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasim Bazar Char Zahir Uddin                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azar Road, Lalmahon                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mastar Bazar Char Zahir Uddin                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttar Bazar Lalmohan Bhola                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajoir Bus Stand,Rajoir.                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreenodi Bazar,Rajor                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabirajpur Takerhat                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tekerhat                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laker Par, Madaripur                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadurbriz Takerhat                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chawdary Clinic Hospitalgate                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Patarhat Mehendiganj Barisal                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infront of General Hospital Takerhat                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ83                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG36                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-471361     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-541924     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-553493     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-556507     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-593717     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-593737     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-593314     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-593758     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-597442     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-599816     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-604380     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-605776     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606280     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607078     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-610185     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-611859     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-611730     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-611942     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-613219     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-614486     </t>
+  </si>
+  <si>
+    <t>06 Apr 2020</t>
+  </si>
+  <si>
+    <t>11 Aug 2020</t>
+  </si>
+  <si>
+    <t>01 Sep 2020</t>
+  </si>
+  <si>
+    <t>07 Sep 2020</t>
+  </si>
+  <si>
+    <t>12 Nov 2020</t>
+  </si>
+  <si>
+    <t>18 Nov 2020</t>
+  </si>
+  <si>
+    <t>23 Nov 2020</t>
+  </si>
+  <si>
+    <t>02 Dec 2020</t>
+  </si>
+  <si>
+    <t>05 Dec 2020</t>
+  </si>
+  <si>
+    <t>07 Dec 2020</t>
+  </si>
+  <si>
+    <t>13 Dec 2020</t>
+  </si>
+  <si>
+    <t>16 Dec 2020</t>
+  </si>
+  <si>
+    <t>19 Dec 2020</t>
+  </si>
+  <si>
+    <t>21 Dec 2020</t>
   </si>
 </sst>
 </file>
@@ -735,25 +750,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H2">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="I2">
-        <v>1727.47</v>
+        <v>1256.49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -764,25 +779,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="I3">
-        <v>2116.46</v>
+        <v>2312.31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -793,25 +808,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="I4">
-        <v>2404.83</v>
+        <v>526.73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -822,25 +837,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I5">
-        <v>9079.27</v>
+        <v>1600.58</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -851,25 +866,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I6">
-        <v>2000.8</v>
+        <v>8549.26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -880,25 +895,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I7">
-        <v>338</v>
+        <v>4800.85</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -909,25 +924,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="I8">
-        <v>229.89</v>
+        <v>3362.66</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -938,25 +953,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
         <v>103</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I9">
-        <v>4000</v>
+        <v>998.1900000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -967,25 +982,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I10">
-        <v>3000</v>
+        <v>6935.36</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -996,25 +1011,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>1778.85</v>
+        <v>248.99</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1025,25 +1040,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I12">
-        <v>2536.6</v>
+        <v>2000.27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1054,25 +1069,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I13">
-        <v>2460.55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1080,28 +1095,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I14">
-        <v>1448.46</v>
+        <v>499.5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1109,28 +1124,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I15">
-        <v>509.52</v>
+        <v>2268.34</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1138,28 +1153,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I16">
-        <v>2089.56</v>
+        <v>961.12</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1167,28 +1182,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I17">
-        <v>3545.75</v>
+        <v>11498.65</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1196,28 +1211,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <v>2526.09</v>
+        <v>5600.55</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1225,28 +1240,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I19">
-        <v>1272</v>
+        <v>4972.57</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1254,28 +1269,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I20">
-        <v>1225.47</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1283,28 +1298,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>398</v>
+        <v>16244</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CashDropTable.xlsx
+++ b/Data/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,319 +40,295 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>51052104235</t>
-  </si>
-  <si>
-    <t>51051100196</t>
-  </si>
-  <si>
-    <t>51051000923</t>
-  </si>
-  <si>
-    <t>51051100189</t>
-  </si>
-  <si>
-    <t>51052149835</t>
-  </si>
-  <si>
-    <t>51051101537</t>
-  </si>
-  <si>
-    <t>90000023466</t>
-  </si>
-  <si>
-    <t>51051101542</t>
-  </si>
-  <si>
-    <t>51052149502</t>
-  </si>
-  <si>
-    <t>90000046949</t>
-  </si>
-  <si>
-    <t>90000007643</t>
-  </si>
-  <si>
-    <t>51011113393</t>
-  </si>
-  <si>
-    <t>51011112056</t>
-  </si>
-  <si>
-    <t>90000004905</t>
-  </si>
-  <si>
-    <t>51051002117</t>
-  </si>
-  <si>
-    <t>51011136674</t>
-  </si>
-  <si>
-    <t>51052149492</t>
-  </si>
-  <si>
-    <t>51011136999</t>
-  </si>
-  <si>
-    <t>51051001087</t>
-  </si>
-  <si>
-    <t>51011117990</t>
-  </si>
-  <si>
-    <t>Seba Drug House</t>
-  </si>
-  <si>
-    <t>Bengal Traders</t>
-  </si>
-  <si>
-    <t>Kalpana Medical Hall</t>
-  </si>
-  <si>
-    <t>Zakir Medical Hall</t>
-  </si>
-  <si>
-    <t>Tanjil Medical Hall</t>
-  </si>
-  <si>
-    <t>Sarmin Medical Hall</t>
-  </si>
-  <si>
-    <t>Allah Safi Health Care</t>
-  </si>
-  <si>
-    <t>Abdul Rahman Medical Hall</t>
-  </si>
-  <si>
-    <t>Hazi Medical Hall</t>
-  </si>
-  <si>
-    <t>Nirapod Shasto seba Diagnostic</t>
-  </si>
-  <si>
-    <t>Al Amin Pharmacy</t>
-  </si>
-  <si>
-    <t>Maya Pharmacy</t>
-  </si>
-  <si>
-    <t>Gita Drug House</t>
-  </si>
-  <si>
-    <t>Lake View Pharmacy</t>
-  </si>
-  <si>
-    <t>Zakaria Medical Hall</t>
-  </si>
-  <si>
-    <t>Anadhi Medical Hall</t>
-  </si>
-  <si>
-    <t>Ezi Medical Hall</t>
-  </si>
-  <si>
-    <t>Rifat Pharmicy</t>
-  </si>
-  <si>
-    <t>Maa Medical Hall</t>
-  </si>
-  <si>
-    <t>Rekha Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guachittra Banaripara Barisal                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadar Road Barisal                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patarhat Mehendiganj Barisal                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lalmohan Bhola                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasim Bazar Char Zahir Uddin                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azar Road, Lalmahon                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mastar Bazar Char Zahir Uddin                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uttar Bazar Lalmohan Bhola                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajoir Bus Stand,Rajoir.                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sreenodi Bazar,Rajor                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabirajpur Takerhat                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tekerhat                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laker Par, Madaripur                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadurbriz Takerhat                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chawdary Clinic Hospitalgate                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Patarhat Mehendiganj Barisal                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infront of General Hospital Takerhat                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ83                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG36                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-471361     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-541924     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-553493     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-556507     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-593717     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-593737     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-593314     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-593758     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-597442     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-599816     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-604380     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-605776     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-606280     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-607078     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-610185     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-611859     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-611730     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-611942     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-613219     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV510-614486     </t>
-  </si>
-  <si>
-    <t>06 Apr 2020</t>
-  </si>
-  <si>
-    <t>11 Aug 2020</t>
-  </si>
-  <si>
-    <t>01 Sep 2020</t>
-  </si>
-  <si>
-    <t>07 Sep 2020</t>
-  </si>
-  <si>
-    <t>12 Nov 2020</t>
-  </si>
-  <si>
-    <t>18 Nov 2020</t>
-  </si>
-  <si>
-    <t>23 Nov 2020</t>
-  </si>
-  <si>
-    <t>02 Dec 2020</t>
-  </si>
-  <si>
-    <t>05 Dec 2020</t>
-  </si>
-  <si>
-    <t>07 Dec 2020</t>
-  </si>
-  <si>
-    <t>13 Dec 2020</t>
+    <t>43061109168</t>
+  </si>
+  <si>
+    <t>43061001508</t>
+  </si>
+  <si>
+    <t>90000009304</t>
+  </si>
+  <si>
+    <t>43061100998</t>
+  </si>
+  <si>
+    <t>42011110174</t>
+  </si>
+  <si>
+    <t>4201118175</t>
+  </si>
+  <si>
+    <t>90000023574</t>
+  </si>
+  <si>
+    <t>90000007482</t>
+  </si>
+  <si>
+    <t>43061100621</t>
+  </si>
+  <si>
+    <t>4201118099</t>
+  </si>
+  <si>
+    <t>43061001726</t>
+  </si>
+  <si>
+    <t>43061101373</t>
+  </si>
+  <si>
+    <t>43061100220</t>
+  </si>
+  <si>
+    <t>43061001001</t>
+  </si>
+  <si>
+    <t>90000049052</t>
+  </si>
+  <si>
+    <t>43061000918</t>
+  </si>
+  <si>
+    <t>43061100959</t>
+  </si>
+  <si>
+    <t>43061000180</t>
+  </si>
+  <si>
+    <t>43061109046</t>
+  </si>
+  <si>
+    <t>43061101921</t>
+  </si>
+  <si>
+    <t>New Mollah Pharmacy</t>
+  </si>
+  <si>
+    <t>Sumon Med Hall</t>
+  </si>
+  <si>
+    <t>Jhenaidah Medical Hall</t>
+  </si>
+  <si>
+    <t>Tohid Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa o Sisu Hospital &amp; Pharmacy</t>
+  </si>
+  <si>
+    <t>Seba Pharmacy</t>
+  </si>
+  <si>
+    <t>Abir Pharmacy</t>
+  </si>
+  <si>
+    <t>Shoccho Pharmacy</t>
+  </si>
+  <si>
+    <t>Sarder Pharmacy</t>
+  </si>
+  <si>
+    <t>Sumi Pharmacy</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Samsuddin Drug</t>
+  </si>
+  <si>
+    <t>Life Care Pharmacy</t>
+  </si>
+  <si>
+    <t>Keya Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Pharmacy</t>
+  </si>
+  <si>
+    <t>Orient Pharmacy</t>
+  </si>
+  <si>
+    <t>Poly Pharmacy</t>
+  </si>
+  <si>
+    <t>Tanjila Clinic</t>
+  </si>
+  <si>
+    <t>Fatema Medicine Center</t>
+  </si>
+  <si>
+    <t>Shakib Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shekepara Bazar Shekepara Kushtia                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomiz Uddin Market Kushtia                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arafpur More,Jhenaidah                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dariapur Bazar Mujibnagar                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azizer More Pangsha Rajbbari                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalitola Pangsha Rajbari                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohisvanga Bazar Pangsha Rajbari                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Mile Nowda, Khadimpur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagla Kanai More Jhenaidah                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pangsha Bazar Rajbari                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koya Bazar Kushtia                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koya Bazar Kushta                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Chuadanga                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halsa Bazar Halsa Purada                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thana Road.Meherpur                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circit House Meherpur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Bazar Main Road Meherpur                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jibonnagar Chuadanga                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate, Jibonnagor                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notun Bazar.Poradha Bazar Mirpur Kushtia                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC35                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-527598     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-556984     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-564698     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-570805     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572917     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572656     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573040     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572693     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572958     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573039     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572624     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572593     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573465     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573329     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572566     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573578     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573448     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573526     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573174     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573587     </t>
+  </si>
+  <si>
+    <t>24 Sep 2020</t>
+  </si>
+  <si>
+    <t>28 Nov 2020</t>
   </si>
   <si>
     <t>16 Dec 2020</t>
   </si>
   <si>
-    <t>19 Dec 2020</t>
-  </si>
-  <si>
-    <t>21 Dec 2020</t>
+    <t>02 Jan 2021</t>
+  </si>
+  <si>
+    <t>06 Jan 2021</t>
+  </si>
+  <si>
+    <t>07 Jan 2021</t>
   </si>
 </sst>
 </file>
@@ -756,7 +732,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -765,10 +741,10 @@
         <v>99</v>
       </c>
       <c r="H2">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="I2">
-        <v>1256.49</v>
+        <v>2000.87</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -785,7 +761,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>80</v>
@@ -794,10 +770,10 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>2312.31</v>
+        <v>632.1900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -814,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
         <v>81</v>
@@ -823,10 +799,10 @@
         <v>101</v>
       </c>
       <c r="H4">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="I4">
-        <v>526.73</v>
+        <v>8439.389999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -840,10 +816,10 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -852,10 +828,10 @@
         <v>102</v>
       </c>
       <c r="H5">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>1600.58</v>
+        <v>1384.5</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -869,10 +845,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>83</v>
@@ -881,10 +857,10 @@
         <v>103</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>8549.26</v>
+        <v>6081.69</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -898,10 +874,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>84</v>
@@ -910,10 +886,10 @@
         <v>103</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>4800.85</v>
+        <v>2137.78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -927,10 +903,10 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>85</v>
@@ -939,10 +915,10 @@
         <v>103</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>3362.66</v>
+        <v>2137.02</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -956,10 +932,10 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -968,10 +944,10 @@
         <v>103</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>998.1900000000001</v>
+        <v>1069.27</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -985,22 +961,22 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>6935.36</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1014,22 +990,22 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>248.99</v>
+        <v>443.03</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1043,22 +1019,22 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
         <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>2000.27</v>
+        <v>200.04</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1072,22 +1048,22 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>200.04</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1101,22 +1077,22 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
         <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>499.5</v>
+        <v>5947.89</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1130,22 +1106,22 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H15">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>2268.34</v>
+        <v>4579.16</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1159,22 +1135,22 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>961.12</v>
+        <v>2328.49</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1188,22 +1164,22 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>11498.65</v>
+        <v>1900.63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1217,22 +1193,22 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
         <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>5600.55</v>
+        <v>1827.08</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1246,22 +1222,22 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>4972.57</v>
+        <v>1462.06</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1275,22 +1251,22 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
         <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>300.64</v>
+        <v>1461.59</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1304,22 +1280,22 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>16244</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CashDropTable.xlsx
+++ b/Data/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,295 +40,301 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>43061109168</t>
-  </si>
-  <si>
     <t>43061001508</t>
   </si>
   <si>
-    <t>90000009304</t>
-  </si>
-  <si>
-    <t>43061100998</t>
-  </si>
-  <si>
     <t>42011110174</t>
   </si>
   <si>
-    <t>4201118175</t>
-  </si>
-  <si>
-    <t>90000023574</t>
-  </si>
-  <si>
-    <t>90000007482</t>
-  </si>
-  <si>
-    <t>43061100621</t>
-  </si>
-  <si>
-    <t>4201118099</t>
-  </si>
-  <si>
-    <t>43061001726</t>
-  </si>
-  <si>
-    <t>43061101373</t>
-  </si>
-  <si>
-    <t>43061100220</t>
-  </si>
-  <si>
-    <t>43061001001</t>
-  </si>
-  <si>
-    <t>90000049052</t>
-  </si>
-  <si>
-    <t>43061000918</t>
-  </si>
-  <si>
-    <t>43061100959</t>
-  </si>
-  <si>
-    <t>43061000180</t>
-  </si>
-  <si>
-    <t>43061109046</t>
-  </si>
-  <si>
-    <t>43061101921</t>
-  </si>
-  <si>
-    <t>New Mollah Pharmacy</t>
+    <t>43061001115</t>
+  </si>
+  <si>
+    <t>43061101331</t>
+  </si>
+  <si>
+    <t>90000051059</t>
+  </si>
+  <si>
+    <t>43061001502</t>
+  </si>
+  <si>
+    <t>43061104768</t>
+  </si>
+  <si>
+    <t>90000049380</t>
+  </si>
+  <si>
+    <t>43061109823</t>
+  </si>
+  <si>
+    <t>43061109671</t>
+  </si>
+  <si>
+    <t>90000040872</t>
+  </si>
+  <si>
+    <t>43061101217</t>
+  </si>
+  <si>
+    <t>43061104116</t>
+  </si>
+  <si>
+    <t>43061109455</t>
+  </si>
+  <si>
+    <t>43061000978</t>
+  </si>
+  <si>
+    <t>43061109454</t>
+  </si>
+  <si>
+    <t>43061109812</t>
+  </si>
+  <si>
+    <t>90000015936</t>
+  </si>
+  <si>
+    <t>90000039216</t>
+  </si>
+  <si>
+    <t>42011138155</t>
   </si>
   <si>
     <t>Sumon Med Hall</t>
   </si>
   <si>
-    <t>Jhenaidah Medical Hall</t>
-  </si>
-  <si>
-    <t>Tohid Pharmacy</t>
-  </si>
-  <si>
     <t>Maa o Sisu Hospital &amp; Pharmacy</t>
   </si>
   <si>
-    <t>Seba Pharmacy</t>
-  </si>
-  <si>
-    <t>Abir Pharmacy</t>
-  </si>
-  <si>
-    <t>Shoccho Pharmacy</t>
-  </si>
-  <si>
-    <t>Sarder Pharmacy</t>
-  </si>
-  <si>
-    <t>Sumi Pharmacy</t>
+    <t>Kum Kum Pharmacy</t>
+  </si>
+  <si>
+    <t>Mollah Pharmacy</t>
+  </si>
+  <si>
+    <t>Dactor Khana</t>
+  </si>
+  <si>
+    <t>Rumon Pharmacy</t>
+  </si>
+  <si>
+    <t>Reha Pharmacy</t>
+  </si>
+  <si>
+    <t>Anash Pharmacy</t>
   </si>
   <si>
     <t>Biswas Pharmacy</t>
   </si>
   <si>
-    <t>Samsuddin Drug</t>
-  </si>
-  <si>
-    <t>Life Care Pharmacy</t>
-  </si>
-  <si>
-    <t>Keya Pharmacy</t>
-  </si>
-  <si>
-    <t>Maa Pharmacy</t>
-  </si>
-  <si>
-    <t>Orient Pharmacy</t>
-  </si>
-  <si>
-    <t>Poly Pharmacy</t>
-  </si>
-  <si>
-    <t>Tanjila Clinic</t>
-  </si>
-  <si>
-    <t>Fatema Medicine Center</t>
-  </si>
-  <si>
-    <t>Shakib Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shekepara Bazar Shekepara Kushtia                           </t>
+    <t>Al Miraj Medical Center</t>
+  </si>
+  <si>
+    <t>Chowdhary Pharmacy</t>
+  </si>
+  <si>
+    <t>Abdullah Pharmacy</t>
+  </si>
+  <si>
+    <t>Halima Pharmacy</t>
+  </si>
+  <si>
+    <t>Mokles Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Drug House</t>
+  </si>
+  <si>
+    <t>Rani Pritty Pharmacy</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Binoy Pharmacy</t>
+  </si>
+  <si>
+    <t>Vattacharja Pharmacy</t>
   </si>
   <si>
     <t xml:space="preserve">Tomiz Uddin Market Kushtia                                  </t>
   </si>
   <si>
-    <t xml:space="preserve">Arafpur More,Jhenaidah                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dariapur Bazar Mujibnagar                                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Azizer More Pangsha Rajbbari                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Kalitola Pangsha Rajbari                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohisvanga Bazar Pangsha Rajbari                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Mile Nowda, Khadimpur                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagla Kanai More Jhenaidah                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pangsha Bazar Rajbari                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koya Bazar Kushtia                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koya Bazar Kushta                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Road Chuadanga                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halsa Bazar Halsa Purada                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thana Road.Meherpur                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circit House Meherpur                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Bazar Main Road Meherpur                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jibonnagar Chuadanga                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate, Jibonnagor                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notun Bazar.Poradha Bazar Mirpur Kushtia                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC13                                                        </t>
+    <t xml:space="preserve">Tomijuddin Market Kushtia                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taragonia Thana More Taragonia                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewria Kaigor Para,Kushtia                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R S Market Kushtia                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagorbatan Jhenidah                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chulkani Bazar Horinakondo                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokholpur Bazar Horinakundu 01767 635890                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorpara Horinakundu Jhenaidah                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate.Horinakundu.Jhenaidha                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samospur Khoksha Kushtia                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahatab Plaza Singer More Kushtia                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Horinakundu                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuchiamara Bheramara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate . Horinakundu                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayankandi Bazar Horinakundu 01714 993354                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dohokola Bazar Kushtia                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razzak Super Market,Kushtia                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harin Baria Bazar Kalukhali Rajbari                         </t>
   </si>
   <si>
     <t xml:space="preserve">KC24                                                        </t>
   </si>
   <si>
+    <t xml:space="preserve">KC82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC32                                                        </t>
+  </si>
+  <si>
     <t xml:space="preserve">KC41                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC35                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-527598     </t>
+    <t xml:space="preserve">KC44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC84                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">SKINV430-556984     </t>
   </si>
   <si>
-    <t xml:space="preserve">SKINV430-564698     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-570805     </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKINV430-572917     </t>
   </si>
   <si>
-    <t xml:space="preserve">SKINV430-572656     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573040     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572693     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572958     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573039     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572624     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572593     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573465     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573329     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572566     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573578     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573448     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573526     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573174     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573587     </t>
-  </si>
-  <si>
-    <t>24 Sep 2020</t>
+    <t xml:space="preserve">SKINV430-575741     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584804     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584758     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585298     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585324     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585222     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585276     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585217     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585416     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585979     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-586196     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587042     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587077     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587058     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-586649     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-586268     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587292     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587392     </t>
   </si>
   <si>
     <t>28 Nov 2020</t>
   </si>
   <si>
-    <t>16 Dec 2020</t>
-  </si>
-  <si>
-    <t>02 Jan 2021</t>
-  </si>
-  <si>
     <t>06 Jan 2021</t>
   </si>
   <si>
-    <t>07 Jan 2021</t>
+    <t>13 Jan 2021</t>
+  </si>
+  <si>
+    <t>04 Feb 2021</t>
+  </si>
+  <si>
+    <t>06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb 2021</t>
+  </si>
+  <si>
+    <t>08 Feb 2021</t>
+  </si>
+  <si>
+    <t>09 Feb 2021</t>
+  </si>
+  <si>
+    <t>10 Feb 2021</t>
   </si>
 </sst>
 </file>
@@ -729,22 +735,22 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>2000.87</v>
+        <v>632.1900000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -758,22 +764,22 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>632.1900000000001</v>
+        <v>6081.69</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -787,22 +793,22 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>8439.389999999999</v>
+        <v>1513.86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -816,22 +822,22 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>1384.5</v>
+        <v>1510.21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -845,22 +851,22 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>6081.69</v>
+        <v>350.39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -874,22 +880,22 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>2137.78</v>
+        <v>13968.18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -903,22 +909,22 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>2137.02</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -932,22 +938,22 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>1069.27</v>
+        <v>748.05</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -961,22 +967,22 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>800</v>
+        <v>528.03</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -987,25 +993,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>443.03</v>
+        <v>528.03</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1016,25 +1022,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>200.04</v>
+        <v>500.52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1045,25 +1051,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>200.04</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1074,25 +1080,25 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
         <v>104</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>5947.89</v>
+        <v>1308.88</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1103,25 +1109,25 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>4579.16</v>
+        <v>1463.2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1132,25 +1138,25 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>2328.49</v>
+        <v>572.29</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1161,25 +1167,25 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>1900.63</v>
+        <v>528.03</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1190,25 +1196,25 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18">
-        <v>1827.08</v>
+        <v>499.52</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1219,25 +1225,25 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19">
-        <v>1462.06</v>
+        <v>362.45</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1248,25 +1254,25 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>1461.59</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1277,25 +1283,25 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21">
-        <v>1030</v>
+        <v>4188.26</v>
       </c>
     </row>
   </sheetData>
